--- a/memobj.xlsx
+++ b/memobj.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>opacity_map</t>
-  </si>
-  <si>
-    <t>heat_map (bonus)</t>
   </si>
 </sst>
 </file>
@@ -364,9 +361,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -378,6 +372,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,29 +407,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,675 +684,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U22"/>
+  <dimension ref="B1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="8" width="12.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="7" customWidth="1"/>
-    <col min="15" max="19" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="8" width="12.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="4" customWidth="1"/>
+    <col min="11" max="12" width="12.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="6" customWidth="1"/>
+    <col min="15" max="19" width="12.5" style="4" customWidth="1"/>
     <col min="20" max="20" width="3.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="U1" s="4" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
+    <row r="2" spans="2:21" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="10" t="s">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
